--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2129131.13842068</v>
+        <v>2127243.556904277</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>599644.7300533711</v>
+        <v>189431.606648225</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>189.3563553686195</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.457978586098</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.764863467406547</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>396.1383875921096</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.283679164003906</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>188.3401863080892</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>67.20546492786063</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.49576810820431</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.0969007895893</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>126.4476979561454</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>105.6571329437493</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>220.5173663574475</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>127.9032618964201</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.76059872676972</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>143.0053956628069</v>
       </c>
       <c r="X22" t="n">
-        <v>142.8341700154629</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>121.2051997333532</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231512</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>225.274089141985</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>110.1949644673077</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965509</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180119</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437398</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897886</v>
+        <v>22.14609241444524</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523553</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>4.994986542896634</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.641263708175</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1567.641263708175</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1209.375565101424</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>823.5873125031799</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>412.6014077135723</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>398.6780036521632</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>2344.380435748108</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.241103772296</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164661</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>773.500346212138</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862865</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>127.3348381583796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>934.7434632358473</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2275.700301430472</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2275.700301430472</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>1944.637414086902</v>
+        <v>2101.83964115093</v>
       </c>
       <c r="W8" t="n">
-        <v>1591.868758816787</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.868758816787</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1067.429715884972</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M12" t="n">
-        <v>1387.765035414674</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.0729548808322</v>
+        <v>416.118479144934</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529253</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405895</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347409</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141522</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>892.7214197110719</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X13" t="n">
-        <v>892.7214197110719</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.7214197110719</v>
+        <v>416.118479144934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171748</v>
+        <v>661.6060969157201</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.765035414674</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N15" t="n">
-        <v>2192.176613678825</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2440.930027762787</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.3583290631015</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351945</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655736</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>955.1031435655736</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X16" t="n">
-        <v>732.3583290631015</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.3583290631015</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578666</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022017</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404654</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404654</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404654</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1369.721056521114</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1369.721056521114</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1080.592417734672</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706317</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="W19" t="n">
-        <v>531.3977182706317</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X19" t="n">
-        <v>486.1849922839957</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404654</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>323.6581146605672</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>323.6581146605672</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>323.6581146605672</v>
+        <v>1499.368801821511</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.525047410253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687012</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687012</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500514</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>576.1735122404928</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.1735122404928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,31 +6005,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>323.6581146605672</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>323.6581146605672</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605672</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W25" t="n">
-        <v>727.6476863320732</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340559</v>
+        <v>609.3753482118776</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905257</v>
+        <v>388.5827690683475</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,22 +6212,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,13 +6242,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>986.002216560966</v>
+        <v>960.371572043376</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550791</v>
+        <v>705.6870838374891</v>
       </c>
       <c r="W28" t="n">
-        <v>620.0096834386067</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="X28" t="n">
-        <v>392.0201325405893</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.0201325405893</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2305.447192690473</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2488.090670303824</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215237</v>
+        <v>439.532429954217</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749878</v>
+        <v>326.3571123076808</v>
       </c>
       <c r="D31" t="n">
-        <v>543.343727644023</v>
+        <v>232.001338176716</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430009</v>
+        <v>232.001338176716</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264617</v>
+        <v>232.001338176716</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>119.5868817779073</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1875.766383946851</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1707.741834017728</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1474.374060512657</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.450437588141</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1041.794132832552</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832552</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703924</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>334.2881267578673</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,19 +7251,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>323.6581146605669</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605669</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6581146605672</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605672</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>531.7271806036092</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>238.395582077063</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>365.0697788354063</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1499203090385265</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.0753003804456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.95834007446309</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>5.192289031589752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>70.01754808718313</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>180.9490566622674</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>143.5176026737841</v>
       </c>
       <c r="X22" t="n">
-        <v>82.87548537357435</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>58.62678044858409</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542622</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.96326325659237</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>176.3280338692833</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>71.56447932453388</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.7225668121494</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860263.9314229598</v>
+        <v>860263.9314229597</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860263.9314229595</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860263.9314229595</v>
+        <v>860263.9314229598</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895008.7021595946</v>
+        <v>895008.7021595945</v>
       </c>
     </row>
     <row r="12">
@@ -26314,22 +26314,22 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590214</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
@@ -26338,22 +26338,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488521</v>
+        <v>528868.7785488506</v>
       </c>
       <c r="L2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>533677.1504117844</v>
       </c>
-      <c r="N2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="O2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086669</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284584</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758031</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758413</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758442</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477247</v>
+        <v>18952.41620477238</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189641</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278208.946046789</v>
+        <v>-278208.9460467889</v>
       </c>
       <c r="C6" t="n">
-        <v>311758.9331677558</v>
+        <v>311758.9331677556</v>
       </c>
       <c r="D6" t="n">
         <v>311758.9331677558</v>
       </c>
       <c r="E6" t="n">
-        <v>-109597.3784571672</v>
+        <v>-109694.8375831393</v>
       </c>
       <c r="F6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="G6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937571</v>
       </c>
       <c r="H6" t="n">
-        <v>415562.6580197295</v>
+        <v>415465.1988937568</v>
       </c>
       <c r="I6" t="n">
-        <v>415562.6580197291</v>
+        <v>415465.1988937569</v>
       </c>
       <c r="J6" t="n">
-        <v>239139.438827136</v>
+        <v>239041.979701164</v>
       </c>
       <c r="K6" t="n">
-        <v>369125.5485110109</v>
+        <v>369107.0547730754</v>
       </c>
       <c r="L6" t="n">
-        <v>402412.5568589958</v>
+        <v>402412.5568589957</v>
       </c>
       <c r="M6" t="n">
-        <v>277954.4484260255</v>
+        <v>277954.4484260253</v>
       </c>
       <c r="N6" t="n">
-        <v>412755.4636598626</v>
+        <v>412755.4636598627</v>
       </c>
       <c r="O6" t="n">
-        <v>412755.4636598625</v>
+        <v>412755.4636598623</v>
       </c>
       <c r="P6" t="n">
-        <v>368592.8583570168</v>
+        <v>368592.858357017</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108337</v>
+        <v>12.92863350108366</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285573</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>134.5664173957376</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>107.5076432062402</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>215.2702419906777</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>17.64578242868538</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.19472341080779</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>28.10813404956858</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>260.5467935422743</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180904</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>229.7861061337734</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949335</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>332.6861108200249</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,31 +32081,31 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>211.1801409386341</v>
       </c>
       <c r="M15" t="n">
-        <v>359.9147016846441</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32324,25 +32324,25 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,28 +32549,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>346.0219808250476</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>238.778605225566</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32807,7 +32807,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32968,7 +32968,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33026,28 +33026,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>27.65065891473438</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33181,7 +33181,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>56.01844895119675</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33421,7 +33421,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
@@ -33503,25 +33503,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>164.4358785485903</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33670,7 +33670,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946992</v>
@@ -33737,19 +33737,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>150.6569265784261</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33758,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>371.5026901321058</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34217,13 +34217,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>435.7437450400228</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34448,16 +34448,16 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,10 +34466,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323549</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>564.9720763436098</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>107.0538699937297</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>443.466106462219</v>
       </c>
       <c r="M15" t="n">
-        <v>683.4857315126256</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556551</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197785</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>222.4735343909618</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,19 +36048,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>60.72709196759495</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>669.5930106530292</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>10.73738595686864</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>60.72709196759495</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>562.3496350535476</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36455,7 +36455,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686864</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556544</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>375.6513211749546</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>126.1139626010243</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412279</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043202</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>415.7019533808754</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>498.6575888386463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>60.72709196759461</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>719.5033523923261</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>60.72709196759501</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>759.3147748680044</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
